--- a/TaskWithMe_db.xlsx
+++ b/TaskWithMe_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\dev\TaskWithMeAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095D44E-856C-473E-8881-1CD04EC93340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40E671-52E7-428A-9BEB-99B65BD8902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A2:Z72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
